--- a/medicine/Hématologie/Enzyme_de_conversion_de_l'angiotensine/Enzyme_de_conversion_de_l'angiotensine.xlsx
+++ b/medicine/Hématologie/Enzyme_de_conversion_de_l'angiotensine/Enzyme_de_conversion_de_l'angiotensine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enzyme_de_conversion_de_l%27angiotensine</t>
+          <t>Enzyme_de_conversion_de_l'angiotensine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enzyme de conversion de l'angiotensine ou plus simplement enzyme de conversion (ECA, EC 3.4.15.1 ; en anglais, angiotensin-converting enzyme  ou ACE) est une exopeptidase qui catalyse la conversion de l'angiotensine I en angiotensine II, un puissant  vasoconstricteur.  
 L'ECA est également impliquée dans l'inactivation de la bradykinine, un puissant vasodilatateur. Ceci explique son synonyme de kininase II (il est apparu que la kininase II et l'ECA sont une seule enzyme).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enzyme_de_conversion_de_l%27angiotensine</t>
+          <t>Enzyme_de_conversion_de_l'angiotensine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le gène de l'ECA encode deux iso-enzymes. 
 L'iso-enzyme ECA somatique s'exprime dans de nombreux tissus, y compris les cellules endothéliales vasculaires, les cellules épithéliales des reins et les cellules de Leydig des testicules.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enzyme_de_conversion_de_l%27angiotensine</t>
+          <t>Enzyme_de_conversion_de_l'angiotensine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>ECA II</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un deuxième gène, ACE2, a été identifié en 2000[5]. Alors que ACE 1 convertit l'angiotensine I en angiotensine II (ayant 8 acides aminés), l'ACE 2 la convertit plutôt en Angiotensine [1-9] (ayant 9 acides aminés). Cette molécule, contrairement à l'AG-II, n'a aucun effet sur les vaisseaux sanguins. Toutefois, un second produit de conversion par ACE 1, une version de 7 acides aminés, l'angiotensin[1-7], est un faible vasodilatateur[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un deuxième gène, ACE2, a été identifié en 2000. Alors que ACE 1 convertit l'angiotensine I en angiotensine II (ayant 8 acides aminés), l'ACE 2 la convertit plutôt en Angiotensine [1-9] (ayant 9 acides aminés). Cette molécule, contrairement à l'AG-II, n'a aucun effet sur les vaisseaux sanguins. Toutefois, un second produit de conversion par ACE 1, une version de 7 acides aminés, l'angiotensin[1-7], est un faible vasodilatateur.
 </t>
         </is>
       </c>
